--- a/Code/Results/Cases/Case_0_182/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_182/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.735172445994209</v>
+        <v>4.915026000314824</v>
       </c>
       <c r="D2">
-        <v>5.519882073984614</v>
+        <v>6.98932775546125</v>
       </c>
       <c r="E2">
-        <v>7.680351483553606</v>
+        <v>12.21136324542672</v>
       </c>
       <c r="F2">
-        <v>66.10147257959154</v>
+        <v>51.69960667589588</v>
       </c>
       <c r="G2">
-        <v>103.0160494428572</v>
+        <v>70.24302641418714</v>
       </c>
       <c r="H2">
-        <v>25.71263230090628</v>
+        <v>22.73042550784366</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.077876681296313</v>
+        <v>10.31591535233711</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.115481180326477</v>
+        <v>4.751727070756155</v>
       </c>
       <c r="D3">
-        <v>5.304224921751525</v>
+        <v>6.94668024582083</v>
       </c>
       <c r="E3">
-        <v>7.508191300813312</v>
+        <v>12.23409171536497</v>
       </c>
       <c r="F3">
-        <v>60.99939960588782</v>
+        <v>50.68688522180905</v>
       </c>
       <c r="G3">
-        <v>94.93174379654289</v>
+        <v>68.15417361979218</v>
       </c>
       <c r="H3">
-        <v>23.71222973667844</v>
+        <v>22.44749946884204</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.836538832743</v>
+        <v>10.32402938806858</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502705</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.725579951857519</v>
+        <v>4.650720963416815</v>
       </c>
       <c r="D4">
-        <v>5.173942345817446</v>
+        <v>6.919969065919601</v>
       </c>
       <c r="E4">
-        <v>7.41208390404945</v>
+        <v>12.25054669514366</v>
       </c>
       <c r="F4">
-        <v>57.91497382847693</v>
+        <v>50.07575507612974</v>
       </c>
       <c r="G4">
-        <v>89.89247718673305</v>
+        <v>66.86935456709682</v>
       </c>
       <c r="H4">
-        <v>22.46680435361521</v>
+        <v>22.28038560189553</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.697447301820533</v>
+        <v>10.33143287524792</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896364</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.563920123863816</v>
+        <v>4.609444375193591</v>
       </c>
       <c r="D5">
-        <v>5.121187556200614</v>
+        <v>6.90895185517897</v>
       </c>
       <c r="E5">
-        <v>7.375106044788728</v>
+        <v>12.25787830606863</v>
       </c>
       <c r="F5">
-        <v>56.67564286771094</v>
+        <v>49.82973406211527</v>
       </c>
       <c r="G5">
-        <v>87.8153179935529</v>
+        <v>66.34608098604724</v>
       </c>
       <c r="H5">
-        <v>22.02086351614311</v>
+        <v>22.21400988020374</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.642824443293649</v>
+        <v>10.33505568701512</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188116</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.536898805404569</v>
+        <v>4.602585576525067</v>
       </c>
       <c r="D6">
-        <v>5.112443063340965</v>
+        <v>6.907114470021137</v>
       </c>
       <c r="E6">
-        <v>7.369092101116199</v>
+        <v>12.25913345425624</v>
       </c>
       <c r="F6">
-        <v>56.46927295129876</v>
+        <v>49.78907446867042</v>
       </c>
       <c r="G6">
-        <v>87.47317700609679</v>
+        <v>66.25923607101096</v>
       </c>
       <c r="H6">
-        <v>21.94766833468089</v>
+        <v>22.20309418203938</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.633872963470357</v>
+        <v>10.33569374992626</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566596</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.723411454212354</v>
+        <v>4.650164665562126</v>
       </c>
       <c r="D7">
-        <v>5.173229742299334</v>
+        <v>6.919821019278475</v>
       </c>
       <c r="E7">
-        <v>7.411576623926239</v>
+        <v>12.25064304016039</v>
       </c>
       <c r="F7">
-        <v>57.8982975457903</v>
+        <v>50.07242448825767</v>
       </c>
       <c r="G7">
-        <v>89.86456425438554</v>
+        <v>66.8622951242204</v>
       </c>
       <c r="H7">
-        <v>22.45990953088983</v>
+        <v>22.27948337183593</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.696702569273778</v>
+        <v>10.33147928492506</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304766463</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.523183675522271</v>
+        <v>4.85891483970834</v>
       </c>
       <c r="D8">
-        <v>5.444943628020412</v>
+        <v>6.974731901306002</v>
       </c>
       <c r="E8">
-        <v>7.618846661958226</v>
+        <v>12.21867975586749</v>
       </c>
       <c r="F8">
-        <v>64.34891696791847</v>
+        <v>51.34840316088704</v>
       </c>
       <c r="G8">
-        <v>100.2409599995066</v>
+        <v>69.52376582335053</v>
       </c>
       <c r="H8">
-        <v>25.02565644462421</v>
+        <v>22.63154162186337</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.992620859351463</v>
+        <v>10.31820871206028</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.041178389863262</v>
+        <v>5.259558277536034</v>
       </c>
       <c r="D9">
-        <v>6.007471798360391</v>
+        <v>7.078249757874411</v>
       </c>
       <c r="E9">
-        <v>8.115025855893556</v>
+        <v>12.17594290875247</v>
       </c>
       <c r="F9">
-        <v>77.03654280949054</v>
+        <v>53.92069693107279</v>
       </c>
       <c r="G9">
-        <v>120.2986274797605</v>
+        <v>74.68914700009108</v>
       </c>
       <c r="H9">
-        <v>29.99652106031982</v>
+        <v>23.37132675367818</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.659485827219339</v>
+        <v>10.31152898771418</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380647</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.1755279052106</v>
+        <v>5.5451569146576</v>
       </c>
       <c r="D10">
-        <v>6.46678866063283</v>
+        <v>7.15178292079897</v>
       </c>
       <c r="E10">
-        <v>8.562229368594965</v>
+        <v>12.15685119310893</v>
       </c>
       <c r="F10">
-        <v>86.69258208332521</v>
+        <v>55.83388081185318</v>
       </c>
       <c r="G10">
-        <v>135.5294252518722</v>
+        <v>78.40704443063092</v>
       </c>
       <c r="H10">
-        <v>33.77773688923259</v>
+        <v>23.94074126928861</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.302274084367548</v>
+        <v>10.31858425944384</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.71540764587853</v>
+        <v>5.672562241758276</v>
       </c>
       <c r="D11">
-        <v>6.697464037405865</v>
+        <v>7.184691684386369</v>
       </c>
       <c r="E11">
-        <v>8.794800003677496</v>
+        <v>12.15086910203914</v>
       </c>
       <c r="F11">
-        <v>91.33217961810493</v>
+        <v>56.70534202190556</v>
       </c>
       <c r="G11">
-        <v>142.8421727522022</v>
+        <v>80.07343736256306</v>
       </c>
       <c r="H11">
-        <v>35.59464115973302</v>
+        <v>24.20446844819885</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.738745289297151</v>
+        <v>10.32442420933878</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.92623066168593</v>
+        <v>5.720401172357911</v>
       </c>
       <c r="D12">
-        <v>6.789763605415176</v>
+        <v>7.197075691130441</v>
       </c>
       <c r="E12">
-        <v>8.888744151423628</v>
+        <v>12.14899488482013</v>
       </c>
       <c r="F12">
-        <v>93.15120450200888</v>
+        <v>57.03519233000428</v>
       </c>
       <c r="G12">
-        <v>145.7087066452894</v>
+        <v>80.70027178156278</v>
       </c>
       <c r="H12">
-        <v>36.30706346346004</v>
+        <v>24.3049308769439</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.909436696487544</v>
+        <v>10.32701619604025</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585681918</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.88047434450577</v>
+        <v>5.710116953942172</v>
       </c>
       <c r="D13">
-        <v>6.769622506879809</v>
+        <v>7.194412033321234</v>
       </c>
       <c r="E13">
-        <v>8.868211482309446</v>
+        <v>12.1493811004463</v>
       </c>
       <c r="F13">
-        <v>92.75606678378729</v>
+        <v>56.96416486729119</v>
       </c>
       <c r="G13">
-        <v>145.0860425679028</v>
+        <v>80.56546734072886</v>
       </c>
       <c r="H13">
-        <v>36.15230268485215</v>
+        <v>24.28326933068762</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.87237804526151</v>
+        <v>10.3264410074879</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617575</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.732600622134</v>
+        <v>5.676506370124153</v>
       </c>
       <c r="D14">
-        <v>6.704943584970002</v>
+        <v>7.18571208321174</v>
       </c>
       <c r="E14">
-        <v>8.802397591178147</v>
+        <v>12.15070705786995</v>
       </c>
       <c r="F14">
-        <v>91.48037289303753</v>
+        <v>56.7324838387682</v>
       </c>
       <c r="G14">
-        <v>143.0757139611431</v>
+        <v>80.12509472225948</v>
       </c>
       <c r="H14">
-        <v>35.65267913401615</v>
+        <v>24.21272209655782</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.752660060271449</v>
+        <v>10.3246298151112</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489661</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.64297361118712</v>
+        <v>5.655864702842741</v>
       </c>
       <c r="D15">
-        <v>6.666044600027278</v>
+        <v>7.180372980330444</v>
       </c>
       <c r="E15">
-        <v>8.76291761165014</v>
+        <v>12.15157024433762</v>
       </c>
       <c r="F15">
-        <v>90.70813731522203</v>
+        <v>56.59054341180227</v>
       </c>
       <c r="G15">
-        <v>141.8587102846445</v>
+        <v>79.85479066053939</v>
       </c>
       <c r="H15">
-        <v>35.3502466270449</v>
+        <v>24.16958492793724</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.680132712709405</v>
+        <v>10.32357002677814</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549472</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.14094035027833</v>
+        <v>5.536776100671549</v>
       </c>
       <c r="D16">
-        <v>6.452282215601632</v>
+        <v>7.149621359237614</v>
       </c>
       <c r="E16">
-        <v>8.547739120367805</v>
+        <v>12.15729673198497</v>
       </c>
       <c r="F16">
-        <v>86.39627230899693</v>
+        <v>55.7769242940615</v>
       </c>
       <c r="G16">
-        <v>135.0623054529821</v>
+        <v>78.29758702373211</v>
       </c>
       <c r="H16">
-        <v>33.66170593622053</v>
+        <v>23.92359369097245</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.274341498677158</v>
+        <v>10.31825573512357</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.840690288268769</v>
+        <v>5.46304126396184</v>
       </c>
       <c r="D17">
-        <v>6.327697653654661</v>
+        <v>7.130617509415875</v>
       </c>
       <c r="E17">
-        <v>8.424120001553284</v>
+        <v>12.1615037401138</v>
       </c>
       <c r="F17">
-        <v>83.82886289699559</v>
+        <v>55.27785760650784</v>
       </c>
       <c r="G17">
-        <v>131.0143271856176</v>
+        <v>77.33546145602649</v>
       </c>
       <c r="H17">
-        <v>32.65635649094391</v>
+        <v>23.77383165626295</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.058201468987784</v>
+        <v>10.31567099278853</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.670000377337082</v>
+        <v>5.420396578157602</v>
       </c>
       <c r="D18">
-        <v>6.257935576244233</v>
+        <v>7.119635989793352</v>
       </c>
       <c r="E18">
-        <v>8.355622773988351</v>
+        <v>12.16417776316472</v>
       </c>
       <c r="F18">
-        <v>82.37323603079348</v>
+        <v>54.99093346561421</v>
       </c>
       <c r="G18">
-        <v>128.7187618224587</v>
+        <v>76.77976157835364</v>
       </c>
       <c r="H18">
-        <v>32.08636279270601</v>
+        <v>23.68813951305592</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.970614276868345</v>
+        <v>10.31443178728751</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568142</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.612487283160274</v>
+        <v>5.405919026726044</v>
       </c>
       <c r="D19">
-        <v>6.2346015592164</v>
+        <v>7.115909073161736</v>
       </c>
       <c r="E19">
-        <v>8.332841234995813</v>
+        <v>12.16512673688213</v>
       </c>
       <c r="F19">
-        <v>81.8834253668962</v>
+        <v>54.89381741796277</v>
       </c>
       <c r="G19">
-        <v>127.9462228602056</v>
+        <v>76.59123392798291</v>
       </c>
       <c r="H19">
-        <v>31.89456190791631</v>
+        <v>23.65920486760303</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.941395023917005</v>
+        <v>10.31405464441432</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880252</v>
+        <v>20.73962067985786</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.872428612904494</v>
+        <v>5.470915061112748</v>
       </c>
       <c r="D20">
-        <v>6.340753856341069</v>
+        <v>7.132645780257921</v>
       </c>
       <c r="E20">
-        <v>8.437000606495772</v>
+        <v>12.16102956398418</v>
       </c>
       <c r="F20">
-        <v>84.09984139988799</v>
+        <v>55.33097343561023</v>
       </c>
       <c r="G20">
-        <v>131.4416247258216</v>
+        <v>77.43812514031173</v>
       </c>
       <c r="H20">
-        <v>32.76246596735367</v>
+        <v>23.78972840227585</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.074629061813964</v>
+        <v>10.31592051377246</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.77582858509188</v>
+        <v>5.686389984818769</v>
       </c>
       <c r="D21">
-        <v>6.723786423640752</v>
+        <v>7.188269580804228</v>
       </c>
       <c r="E21">
-        <v>8.821550473802656</v>
+        <v>12.150306959634</v>
       </c>
       <c r="F21">
-        <v>91.85309126714202</v>
+        <v>56.80054078356967</v>
       </c>
       <c r="G21">
-        <v>143.6630819575308</v>
+        <v>80.25456119660845</v>
       </c>
       <c r="H21">
-        <v>35.79865095221865</v>
+        <v>24.23342803270086</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.787649900313504</v>
+        <v>10.32515146184256</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633599</v>
+        <v>21.70751365554063</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.40656723703315</v>
+        <v>5.824827398563944</v>
       </c>
       <c r="D22">
-        <v>7.0049464591109</v>
+        <v>7.224169377657865</v>
       </c>
       <c r="E22">
-        <v>9.108897474946621</v>
+        <v>12.14557964693231</v>
       </c>
       <c r="F22">
-        <v>97.31066232202251</v>
+        <v>57.75995940227635</v>
       </c>
       <c r="G22">
-        <v>152.2628383116463</v>
+        <v>82.07058663117161</v>
       </c>
       <c r="H22">
-        <v>37.9363694044399</v>
+        <v>24.52684047650017</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.29889853869421</v>
+        <v>10.33340331570926</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.06467381377993</v>
+        <v>5.751172812384099</v>
       </c>
       <c r="D23">
-        <v>6.851076116943598</v>
+        <v>7.205050443610707</v>
       </c>
       <c r="E23">
-        <v>8.951343416778771</v>
+        <v>12.1478932562603</v>
       </c>
       <c r="F23">
-        <v>94.34791111712335</v>
+        <v>57.24809459085057</v>
       </c>
       <c r="G23">
-        <v>147.5944432144661</v>
+        <v>81.10378449634233</v>
       </c>
       <c r="H23">
-        <v>36.77578729610521</v>
+        <v>24.36995355807401</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.021606239436272</v>
+        <v>10.32879542068876</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911182</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.858073904084822</v>
+        <v>5.467356103685082</v>
       </c>
       <c r="D24">
-        <v>6.334845461385773</v>
+        <v>7.131728973297589</v>
       </c>
       <c r="E24">
-        <v>8.431169380407718</v>
+        <v>12.16124314381181</v>
       </c>
       <c r="F24">
-        <v>83.97727017269234</v>
+        <v>55.30695975762266</v>
       </c>
       <c r="G24">
-        <v>131.2483475989024</v>
+        <v>77.39171881869962</v>
       </c>
       <c r="H24">
-        <v>32.71446965180898</v>
+        <v>23.78254020629611</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.06719369332791</v>
+        <v>10.31580693679097</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911919</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.63183978699942</v>
+        <v>5.152482554702352</v>
       </c>
       <c r="D25">
-        <v>5.849904771355511</v>
+        <v>7.050689424940717</v>
       </c>
       <c r="E25">
-        <v>7.968913974308786</v>
+        <v>12.18535364833183</v>
       </c>
       <c r="F25">
-        <v>73.58596519472103</v>
+        <v>53.21934738592554</v>
       </c>
       <c r="G25">
-        <v>114.8501333133871</v>
+        <v>73.30232291026645</v>
       </c>
       <c r="H25">
-        <v>28.64507995385557</v>
+        <v>23.16633331764908</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.467320989491109</v>
+        <v>10.31124678473132</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088412</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_182/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_182/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.915026000314824</v>
+        <v>7.735172445994426</v>
       </c>
       <c r="D2">
-        <v>6.98932775546125</v>
+        <v>5.519882073984808</v>
       </c>
       <c r="E2">
-        <v>12.21136324542672</v>
+        <v>7.680351483553598</v>
       </c>
       <c r="F2">
-        <v>51.69960667589588</v>
+        <v>66.1014725795919</v>
       </c>
       <c r="G2">
-        <v>70.24302641418714</v>
+        <v>103.0160494428578</v>
       </c>
       <c r="H2">
-        <v>22.73042550784366</v>
+        <v>25.71263230090645</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.31591535233711</v>
+        <v>7.077876681296299</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883691</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.751727070756155</v>
+        <v>7.115481180326431</v>
       </c>
       <c r="D3">
-        <v>6.94668024582083</v>
+        <v>5.304224921751652</v>
       </c>
       <c r="E3">
-        <v>12.23409171536497</v>
+        <v>7.50819130081324</v>
       </c>
       <c r="F3">
-        <v>50.68688522180905</v>
+        <v>60.99939960588765</v>
       </c>
       <c r="G3">
-        <v>68.15417361979218</v>
+        <v>94.93174379654256</v>
       </c>
       <c r="H3">
-        <v>22.44749946884204</v>
+        <v>23.71222973667837</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.32402938806858</v>
+        <v>6.836538832742948</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502705</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.650720963416815</v>
+        <v>6.725579951857561</v>
       </c>
       <c r="D4">
-        <v>6.919969065919601</v>
+        <v>5.173942345817577</v>
       </c>
       <c r="E4">
-        <v>12.25054669514366</v>
+        <v>7.412083904049497</v>
       </c>
       <c r="F4">
-        <v>50.07575507612974</v>
+        <v>57.91497382847707</v>
       </c>
       <c r="G4">
-        <v>66.86935456709682</v>
+        <v>89.89247718673326</v>
       </c>
       <c r="H4">
-        <v>22.28038560189553</v>
+        <v>22.4668043536153</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.33143287524792</v>
+        <v>6.697447301820576</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896364</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.609444375193591</v>
+        <v>6.563920123863872</v>
       </c>
       <c r="D5">
-        <v>6.90895185517897</v>
+        <v>5.121187556200565</v>
       </c>
       <c r="E5">
-        <v>12.25787830606863</v>
+        <v>7.375106044788721</v>
       </c>
       <c r="F5">
-        <v>49.82973406211527</v>
+        <v>56.67564286771102</v>
       </c>
       <c r="G5">
-        <v>66.34608098604724</v>
+        <v>87.81531799355304</v>
       </c>
       <c r="H5">
-        <v>22.21400988020374</v>
+        <v>22.02086351614312</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.33505568701512</v>
+        <v>6.642824443293637</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188116</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.602585576525067</v>
+        <v>6.536898805404529</v>
       </c>
       <c r="D6">
-        <v>6.907114470021137</v>
+        <v>5.112443063340884</v>
       </c>
       <c r="E6">
-        <v>12.25913345425624</v>
+        <v>7.369092101116255</v>
       </c>
       <c r="F6">
-        <v>49.78907446867042</v>
+        <v>56.46927295129869</v>
       </c>
       <c r="G6">
-        <v>66.25923607101096</v>
+        <v>87.47317700609662</v>
       </c>
       <c r="H6">
-        <v>22.20309418203938</v>
+        <v>21.94766833468085</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.33569374992626</v>
+        <v>6.633872963470402</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566596</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.650164665562126</v>
+        <v>6.723411454212385</v>
       </c>
       <c r="D7">
-        <v>6.919821019278475</v>
+        <v>5.173229742299265</v>
       </c>
       <c r="E7">
-        <v>12.25064304016039</v>
+        <v>7.411576623926214</v>
       </c>
       <c r="F7">
-        <v>50.07242448825767</v>
+        <v>57.89829754579041</v>
       </c>
       <c r="G7">
-        <v>66.8622951242204</v>
+        <v>89.8645642543857</v>
       </c>
       <c r="H7">
-        <v>22.27948337183593</v>
+        <v>22.45990953088989</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.33147928492506</v>
+        <v>6.696702569273802</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304766463</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.85891483970834</v>
+        <v>7.523183675522286</v>
       </c>
       <c r="D8">
-        <v>6.974731901306002</v>
+        <v>5.444943628020287</v>
       </c>
       <c r="E8">
-        <v>12.21867975586749</v>
+        <v>7.618846661958164</v>
       </c>
       <c r="F8">
-        <v>51.34840316088704</v>
+        <v>64.34891696791841</v>
       </c>
       <c r="G8">
-        <v>69.52376582335053</v>
+        <v>100.2409599995065</v>
       </c>
       <c r="H8">
-        <v>22.63154162186337</v>
+        <v>25.02565644462422</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.31820871206028</v>
+        <v>6.992620859351474</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.259558277536034</v>
+        <v>9.041178389863184</v>
       </c>
       <c r="D9">
-        <v>7.078249757874411</v>
+        <v>6.007471798360386</v>
       </c>
       <c r="E9">
-        <v>12.17594290875247</v>
+        <v>8.115025855893602</v>
       </c>
       <c r="F9">
-        <v>53.92069693107279</v>
+        <v>77.03654280949063</v>
       </c>
       <c r="G9">
-        <v>74.68914700009108</v>
+        <v>120.2986274797606</v>
       </c>
       <c r="H9">
-        <v>23.37132675367818</v>
+        <v>29.99652106031984</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.31152898771418</v>
+        <v>7.659485827219363</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380648</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.5451569146576</v>
+        <v>10.17552790521063</v>
       </c>
       <c r="D10">
-        <v>7.15178292079897</v>
+        <v>6.466788660632752</v>
       </c>
       <c r="E10">
-        <v>12.15685119310893</v>
+        <v>8.562229368594959</v>
       </c>
       <c r="F10">
-        <v>55.83388081185318</v>
+        <v>86.69258208332481</v>
       </c>
       <c r="G10">
-        <v>78.40704443063092</v>
+        <v>135.5294252518716</v>
       </c>
       <c r="H10">
-        <v>23.94074126928861</v>
+        <v>33.77773688923241</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.31858425944384</v>
+        <v>8.302274084367548</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.672562241758276</v>
+        <v>10.7154076458786</v>
       </c>
       <c r="D11">
-        <v>7.184691684386369</v>
+        <v>6.697464037405856</v>
       </c>
       <c r="E11">
-        <v>12.15086910203914</v>
+        <v>8.794800003677485</v>
       </c>
       <c r="F11">
-        <v>56.70534202190556</v>
+        <v>91.33217961810509</v>
       </c>
       <c r="G11">
-        <v>80.07343736256306</v>
+        <v>142.8421727522025</v>
       </c>
       <c r="H11">
-        <v>24.20446844819885</v>
+        <v>35.59464115973303</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.32442420933878</v>
+        <v>8.738745289297132</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374477</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.720401172357911</v>
+        <v>10.92623066168614</v>
       </c>
       <c r="D12">
-        <v>7.197075691130441</v>
+        <v>6.78976360541543</v>
       </c>
       <c r="E12">
-        <v>12.14899488482013</v>
+        <v>8.888744151423653</v>
       </c>
       <c r="F12">
-        <v>57.03519233000428</v>
+        <v>93.1512045020099</v>
       </c>
       <c r="G12">
-        <v>80.70027178156278</v>
+        <v>145.7087066452911</v>
       </c>
       <c r="H12">
-        <v>24.3049308769439</v>
+        <v>36.30706346346047</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.32701619604025</v>
+        <v>8.909436696487683</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585681918</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.710116953942172</v>
+        <v>10.88047434450574</v>
       </c>
       <c r="D13">
-        <v>7.194412033321234</v>
+        <v>6.769622506879809</v>
       </c>
       <c r="E13">
-        <v>12.1493811004463</v>
+        <v>8.86821148230943</v>
       </c>
       <c r="F13">
-        <v>56.96416486729119</v>
+        <v>92.75606678378733</v>
       </c>
       <c r="G13">
-        <v>80.56546734072886</v>
+        <v>145.086042567903</v>
       </c>
       <c r="H13">
-        <v>24.28326933068762</v>
+        <v>36.15230268485212</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.3264410074879</v>
+        <v>8.872378045261438</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617577</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.676506370124153</v>
+        <v>10.73260062213395</v>
       </c>
       <c r="D14">
-        <v>7.18571208321174</v>
+        <v>6.704943584969998</v>
       </c>
       <c r="E14">
-        <v>12.15070705786995</v>
+        <v>8.802397591178119</v>
       </c>
       <c r="F14">
-        <v>56.7324838387682</v>
+        <v>91.48037289303811</v>
       </c>
       <c r="G14">
-        <v>80.12509472225948</v>
+        <v>143.0757139611439</v>
       </c>
       <c r="H14">
-        <v>24.21272209655782</v>
+        <v>35.65267913401636</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.3246298151112</v>
+        <v>8.752660060271559</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489661</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.655864702842741</v>
+        <v>10.64297361118722</v>
       </c>
       <c r="D15">
-        <v>7.180372980330444</v>
+        <v>6.666044600027305</v>
       </c>
       <c r="E15">
-        <v>12.15157024433762</v>
+        <v>8.762917611650121</v>
       </c>
       <c r="F15">
-        <v>56.59054341180227</v>
+        <v>90.70813731522239</v>
       </c>
       <c r="G15">
-        <v>79.85479066053939</v>
+        <v>141.8587102846452</v>
       </c>
       <c r="H15">
-        <v>24.16958492793724</v>
+        <v>35.35024662704502</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.32357002677814</v>
+        <v>8.680132712709486</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549475</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.536776100671549</v>
+        <v>10.14094035027848</v>
       </c>
       <c r="D16">
-        <v>7.149621359237614</v>
+        <v>6.452282215601593</v>
       </c>
       <c r="E16">
-        <v>12.15729673198497</v>
+        <v>8.547739120367821</v>
       </c>
       <c r="F16">
-        <v>55.7769242940615</v>
+        <v>86.39627230899698</v>
       </c>
       <c r="G16">
-        <v>78.29758702373211</v>
+        <v>135.0623054529823</v>
       </c>
       <c r="H16">
-        <v>23.92359369097245</v>
+        <v>33.66170593622051</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.31825573512357</v>
+        <v>8.274341498677124</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.42464283346098</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.46304126396184</v>
+        <v>9.840690288268684</v>
       </c>
       <c r="D17">
-        <v>7.130617509415875</v>
+        <v>6.327697653654655</v>
       </c>
       <c r="E17">
-        <v>12.1615037401138</v>
+        <v>8.424120001553268</v>
       </c>
       <c r="F17">
-        <v>55.27785760650784</v>
+        <v>83.82886289699569</v>
       </c>
       <c r="G17">
-        <v>77.33546145602649</v>
+        <v>131.0143271856179</v>
       </c>
       <c r="H17">
-        <v>23.77383165626295</v>
+        <v>32.65635649094392</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.31567099278853</v>
+        <v>8.058201468987793</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119277</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.420396578157602</v>
+        <v>9.670000377336804</v>
       </c>
       <c r="D18">
-        <v>7.119635989793352</v>
+        <v>6.257935576243981</v>
       </c>
       <c r="E18">
-        <v>12.16417776316472</v>
+        <v>8.355622773988268</v>
       </c>
       <c r="F18">
-        <v>54.99093346561421</v>
+        <v>82.37323603079322</v>
       </c>
       <c r="G18">
-        <v>76.77976157835364</v>
+        <v>128.7187618224582</v>
       </c>
       <c r="H18">
-        <v>23.68813951305592</v>
+        <v>32.08636279270589</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.31443178728751</v>
+        <v>7.970614276868307</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568142</v>
+        <v>29.56404287680426</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.405919026726044</v>
+        <v>9.612487283160357</v>
       </c>
       <c r="D19">
-        <v>7.115909073161736</v>
+        <v>6.23460155921628</v>
       </c>
       <c r="E19">
-        <v>12.16512673688213</v>
+        <v>8.33284123499579</v>
       </c>
       <c r="F19">
-        <v>54.89381741796277</v>
+        <v>81.88342536689568</v>
       </c>
       <c r="G19">
-        <v>76.59123392798291</v>
+        <v>127.9462228602048</v>
       </c>
       <c r="H19">
-        <v>23.65920486760303</v>
+        <v>31.89456190791612</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.31405464441432</v>
+        <v>7.941395023916978</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985786</v>
+        <v>29.45587200880252</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.470915061112748</v>
+        <v>9.87242861290445</v>
       </c>
       <c r="D20">
-        <v>7.132645780257921</v>
+        <v>6.340753856341093</v>
       </c>
       <c r="E20">
-        <v>12.16102956398418</v>
+        <v>8.437000606495731</v>
       </c>
       <c r="F20">
-        <v>55.33097343561023</v>
+        <v>84.09984139988829</v>
       </c>
       <c r="G20">
-        <v>77.43812514031173</v>
+        <v>131.4416247258222</v>
       </c>
       <c r="H20">
-        <v>23.78972840227585</v>
+        <v>32.7624659673538</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.31592051377246</v>
+        <v>8.074629061813971</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.686389984818769</v>
+        <v>10.77582858509183</v>
       </c>
       <c r="D21">
-        <v>7.188269580804228</v>
+        <v>6.723786423640847</v>
       </c>
       <c r="E21">
-        <v>12.150306959634</v>
+        <v>8.821550473802656</v>
       </c>
       <c r="F21">
-        <v>56.80054078356967</v>
+        <v>91.85309126714232</v>
       </c>
       <c r="G21">
-        <v>80.25456119660845</v>
+        <v>143.6630819575313</v>
       </c>
       <c r="H21">
-        <v>24.23342803270086</v>
+        <v>35.79865095221879</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.32515146184256</v>
+        <v>8.787649900313491</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554063</v>
+        <v>31.50948335633599</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.824827398563944</v>
+        <v>11.40656723703335</v>
       </c>
       <c r="D22">
-        <v>7.224169377657865</v>
+        <v>7.004946459111016</v>
       </c>
       <c r="E22">
-        <v>12.14557964693231</v>
+        <v>9.108897474946623</v>
       </c>
       <c r="F22">
-        <v>57.75995940227635</v>
+        <v>97.31066232202301</v>
       </c>
       <c r="G22">
-        <v>82.07058663117161</v>
+        <v>152.2628383116472</v>
       </c>
       <c r="H22">
-        <v>24.52684047650017</v>
+        <v>37.93636940444016</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.33340331570926</v>
+        <v>9.298898538694218</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050591</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.751172812384099</v>
+        <v>11.06467381378005</v>
       </c>
       <c r="D23">
-        <v>7.205050443610707</v>
+        <v>6.85107611694356</v>
       </c>
       <c r="E23">
-        <v>12.1478932562603</v>
+        <v>8.951343416778693</v>
       </c>
       <c r="F23">
-        <v>57.24809459085057</v>
+        <v>94.34791111712353</v>
       </c>
       <c r="G23">
-        <v>81.10378449634233</v>
+        <v>147.5944432144664</v>
       </c>
       <c r="H23">
-        <v>24.36995355807401</v>
+        <v>36.77578729610527</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.32879542068876</v>
+        <v>9.021606239436302</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911182</v>
+        <v>31.97238356075507</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.467356103685082</v>
+        <v>9.858073904084911</v>
       </c>
       <c r="D24">
-        <v>7.131728973297589</v>
+        <v>6.334845461385953</v>
       </c>
       <c r="E24">
-        <v>12.16124314381181</v>
+        <v>8.431169380407724</v>
       </c>
       <c r="F24">
-        <v>55.30695975762266</v>
+        <v>83.97727017269274</v>
       </c>
       <c r="G24">
-        <v>77.39171881869962</v>
+        <v>131.248347598903</v>
       </c>
       <c r="H24">
-        <v>23.78254020629611</v>
+        <v>32.7144696518092</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.31580693679097</v>
+        <v>8.06719369332791</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911916</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.152482554702352</v>
+        <v>8.631839786999434</v>
       </c>
       <c r="D25">
-        <v>7.050689424940717</v>
+        <v>5.849904771355636</v>
       </c>
       <c r="E25">
-        <v>12.18535364833183</v>
+        <v>7.968913974308762</v>
       </c>
       <c r="F25">
-        <v>53.21934738592554</v>
+        <v>73.58596519472091</v>
       </c>
       <c r="G25">
-        <v>73.30232291026645</v>
+        <v>114.850133313387</v>
       </c>
       <c r="H25">
-        <v>23.16633331764908</v>
+        <v>28.64507995385551</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.31124678473132</v>
+        <v>7.467320989491069</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.5170850808841</v>
       </c>
       <c r="O25">
         <v>0</v>
